--- a/Code/Results/Cases/Case_3_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_187/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.760668517826929</v>
+        <v>0.5802201919648269</v>
       </c>
       <c r="C2">
-        <v>0.4245917959060819</v>
+        <v>0.1333860406410849</v>
       </c>
       <c r="D2">
-        <v>0.2248598724267197</v>
+        <v>0.3486400274081376</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5597312638296899</v>
+        <v>0.927735168085718</v>
       </c>
       <c r="G2">
-        <v>0.2851003551924478</v>
+        <v>0.3735667452777491</v>
       </c>
       <c r="H2">
-        <v>0.2297812983159631</v>
+        <v>0.5320773829552436</v>
       </c>
       <c r="I2">
-        <v>0.1511273616592312</v>
+        <v>0.3757125146676756</v>
       </c>
       <c r="J2">
-        <v>0.1549802043709505</v>
+        <v>0.2863611567612168</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6437795200795904</v>
+        <v>0.3451593160192559</v>
       </c>
       <c r="N2">
-        <v>0.7263526699631413</v>
+        <v>1.052571756193949</v>
       </c>
       <c r="O2">
-        <v>1.035869523634631</v>
+        <v>1.751971742156471</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.535636091413778</v>
+        <v>0.5095561750466686</v>
       </c>
       <c r="C3">
-        <v>0.3736083635161549</v>
+        <v>0.116996475682754</v>
       </c>
       <c r="D3">
-        <v>0.2065700089601563</v>
+        <v>0.345621833688341</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5252296639400029</v>
+        <v>0.9265826203569674</v>
       </c>
       <c r="G3">
-        <v>0.2634018730109133</v>
+        <v>0.3718514101684534</v>
       </c>
       <c r="H3">
-        <v>0.2247909847468037</v>
+        <v>0.5347920870870624</v>
       </c>
       <c r="I3">
-        <v>0.1538486403025736</v>
+        <v>0.3802615564006295</v>
       </c>
       <c r="J3">
-        <v>0.1467766207397645</v>
+        <v>0.2865529949736825</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5612678520070418</v>
+        <v>0.3217656451734001</v>
       </c>
       <c r="N3">
-        <v>0.7303350334819072</v>
+        <v>1.056540501829922</v>
       </c>
       <c r="O3">
-        <v>0.9790870967094349</v>
+        <v>1.753764469106414</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.397317136608649</v>
+        <v>0.4660641078759511</v>
       </c>
       <c r="C4">
-        <v>0.3422473870339218</v>
+        <v>0.1068845514444661</v>
       </c>
       <c r="D4">
-        <v>0.1955507602665847</v>
+        <v>0.3439100971284859</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5050825936461152</v>
+        <v>0.9264304020022536</v>
       </c>
       <c r="G4">
-        <v>0.250739501760961</v>
+        <v>0.3710938275974272</v>
       </c>
       <c r="H4">
-        <v>0.2221567363190928</v>
+        <v>0.5367170328413877</v>
       </c>
       <c r="I4">
-        <v>0.1559896689200873</v>
+        <v>0.3832994015100493</v>
       </c>
       <c r="J4">
-        <v>0.1420214950496685</v>
+        <v>0.2868265586623693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5107636681747181</v>
+        <v>0.3074844715521934</v>
       </c>
       <c r="N4">
-        <v>0.7335843997455953</v>
+        <v>1.059367729072591</v>
       </c>
       <c r="O4">
-        <v>0.9465136293726459</v>
+        <v>1.756023224164437</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.340903287638355</v>
+        <v>0.4483158692900702</v>
       </c>
       <c r="C5">
-        <v>0.3294508757635413</v>
+        <v>0.1027519054841548</v>
       </c>
       <c r="D5">
-        <v>0.1911105134693258</v>
+        <v>0.3432482294262087</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4971195073174215</v>
+        <v>0.9265080882385206</v>
       </c>
       <c r="G5">
-        <v>0.2457355086842981</v>
+        <v>0.3708593643635965</v>
       </c>
       <c r="H5">
-        <v>0.2211868497844165</v>
+        <v>0.5375664061375929</v>
       </c>
       <c r="I5">
-        <v>0.1569754085451489</v>
+        <v>0.384598828156836</v>
       </c>
       <c r="J5">
-        <v>0.1401509496769791</v>
+        <v>0.2869772109626041</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4902159550789946</v>
+        <v>0.3016859582817446</v>
       </c>
       <c r="N5">
-        <v>0.7351047680487355</v>
+        <v>1.060618205570854</v>
       </c>
       <c r="O5">
-        <v>0.9337850168685122</v>
+        <v>1.757234776543157</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.331532633138181</v>
+        <v>0.4453673241770844</v>
       </c>
       <c r="C6">
-        <v>0.32732495343393</v>
+        <v>0.1020649690534583</v>
       </c>
       <c r="D6">
-        <v>0.1903761649866595</v>
+        <v>0.3431404849755495</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4958117704865401</v>
+        <v>0.926529427801654</v>
       </c>
       <c r="G6">
-        <v>0.2449137365152083</v>
+        <v>0.3708249144644782</v>
       </c>
       <c r="H6">
-        <v>0.221031929918631</v>
+        <v>0.5377113674385896</v>
       </c>
       <c r="I6">
-        <v>0.1571457885314604</v>
+        <v>0.384818308578847</v>
       </c>
       <c r="J6">
-        <v>0.1398443016768951</v>
+        <v>0.2870045926748688</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4868058375491202</v>
+        <v>0.3007244106705684</v>
       </c>
       <c r="N6">
-        <v>0.7353689059334201</v>
+        <v>1.060831792471284</v>
       </c>
       <c r="O6">
-        <v>0.931703502714285</v>
+        <v>1.757453532147935</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.39655652644845</v>
+        <v>0.4658248478868359</v>
       </c>
       <c r="C7">
-        <v>0.3420748792333939</v>
+        <v>0.1068288651644309</v>
       </c>
       <c r="D7">
-        <v>0.1954906779767072</v>
+        <v>0.3439010263396227</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5049742183067281</v>
+        <v>0.9264308839416842</v>
       </c>
       <c r="G7">
-        <v>0.2506713974240782</v>
+        <v>0.3710903649883193</v>
       </c>
       <c r="H7">
-        <v>0.2221432424450498</v>
+        <v>0.5367282247859251</v>
       </c>
       <c r="I7">
-        <v>0.156002510813174</v>
+        <v>0.383316677175344</v>
       </c>
       <c r="J7">
-        <v>0.1419960008465964</v>
+        <v>0.2868284317994139</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.510486428838604</v>
+        <v>0.3074061844810956</v>
       </c>
       <c r="N7">
-        <v>0.7336041171577108</v>
+        <v>1.05938419493355</v>
       </c>
       <c r="O7">
-        <v>0.9463397985099533</v>
+        <v>1.756038385100567</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.683101484367597</v>
+        <v>0.5558775992833205</v>
       </c>
       <c r="C8">
-        <v>0.4070230527534022</v>
+        <v>0.1277451836682246</v>
       </c>
       <c r="D8">
-        <v>0.2185080320299448</v>
+        <v>0.3475700618990345</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5476113885242313</v>
+        <v>0.9272225092255013</v>
       </c>
       <c r="G8">
-        <v>0.2774754026257042</v>
+        <v>0.3729138859260601</v>
       </c>
       <c r="H8">
-        <v>0.2279686611496103</v>
+        <v>0.5329598659901009</v>
       </c>
       <c r="I8">
-        <v>0.1519650244349435</v>
+        <v>0.3772302005196444</v>
       </c>
       <c r="J8">
-        <v>0.1520908292228142</v>
+        <v>0.2863949722218848</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6152924960217376</v>
+        <v>0.3370762608777298</v>
       </c>
       <c r="N8">
-        <v>0.7275551834144096</v>
+        <v>1.053859263064027</v>
       </c>
       <c r="O8">
-        <v>1.015796440147568</v>
+        <v>1.752349463586157</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.244374921062956</v>
+        <v>0.731596043920149</v>
       </c>
       <c r="C9">
-        <v>0.5340544153318376</v>
+        <v>0.1683653357121955</v>
       </c>
       <c r="D9">
-        <v>0.2654535558591533</v>
+        <v>0.3558831553151123</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.640106432606423</v>
+        <v>0.933181658919672</v>
       </c>
       <c r="G9">
-        <v>0.3357584832632057</v>
+        <v>0.3788401540185617</v>
       </c>
       <c r="H9">
-        <v>0.2430160383154316</v>
+        <v>0.5276166446873418</v>
       </c>
       <c r="I9">
-        <v>0.1480119218431568</v>
+        <v>0.3672388236215269</v>
       </c>
       <c r="J9">
-        <v>0.1742988970759711</v>
+        <v>0.2867812160231225</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8224012138084476</v>
+        <v>0.3959002104096072</v>
       </c>
       <c r="N9">
-        <v>0.7223591430960994</v>
+        <v>1.046114872553346</v>
       </c>
       <c r="O9">
-        <v>1.1716429221635</v>
+        <v>1.754310790238833</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.657187631327076</v>
+        <v>0.8601095478591105</v>
       </c>
       <c r="C10">
-        <v>0.6273707934371657</v>
+        <v>0.1979556951998802</v>
       </c>
       <c r="D10">
-        <v>0.3012491407805982</v>
+        <v>0.36266780400058</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7144416519761165</v>
+        <v>0.9402478439415489</v>
       </c>
       <c r="G10">
-        <v>0.3827698531739259</v>
+        <v>0.3846345347705835</v>
       </c>
       <c r="H10">
-        <v>0.2565935178272127</v>
+        <v>0.5249370824489574</v>
       </c>
       <c r="I10">
-        <v>0.1478646707410931</v>
+        <v>0.3610867876453057</v>
       </c>
       <c r="J10">
-        <v>0.1923437732223761</v>
+        <v>0.2878195157456958</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9760282787733345</v>
+        <v>0.4394936779871088</v>
       </c>
       <c r="N10">
-        <v>0.7230237314677055</v>
+        <v>1.042299396933544</v>
       </c>
       <c r="O10">
-        <v>1.300265304309676</v>
+        <v>1.761370639524841</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.845285808711026</v>
+        <v>0.9184356192523069</v>
       </c>
       <c r="C11">
-        <v>0.6698660139961135</v>
+        <v>0.2113598610868621</v>
       </c>
       <c r="D11">
-        <v>0.3178644967013469</v>
+        <v>0.3659004058900024</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7498706486293969</v>
+        <v>0.9440465601166608</v>
       </c>
       <c r="G11">
-        <v>0.4052321076141254</v>
+        <v>0.3875849794265775</v>
       </c>
       <c r="H11">
-        <v>0.2633916755782622</v>
+        <v>0.5239883732576374</v>
       </c>
       <c r="I11">
-        <v>0.1484759900088477</v>
+        <v>0.3585468981721149</v>
       </c>
       <c r="J11">
-        <v>0.2009891124930903</v>
+        <v>0.2884559234726538</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.04635435990096</v>
+        <v>0.4594040353567976</v>
       </c>
       <c r="N11">
-        <v>0.7243978897712395</v>
+        <v>1.040968765463106</v>
       </c>
       <c r="O11">
-        <v>1.362351032364614</v>
+        <v>1.765805459973564</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.916575246320974</v>
+        <v>0.9405015509258305</v>
       </c>
       <c r="C12">
-        <v>0.6859683231513998</v>
+        <v>0.2164272729033598</v>
       </c>
       <c r="D12">
-        <v>0.3242081703232458</v>
+        <v>0.3671454376103895</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7635387429787102</v>
+        <v>0.9455690460841453</v>
       </c>
       <c r="G12">
-        <v>0.4139074327435992</v>
+        <v>0.388747576938357</v>
       </c>
       <c r="H12">
-        <v>0.2660619002311222</v>
+        <v>0.5236679521940317</v>
       </c>
       <c r="I12">
-        <v>0.1488120856636677</v>
+        <v>0.3576223721003302</v>
       </c>
       <c r="J12">
-        <v>0.204331059360058</v>
+        <v>0.2887205172341609</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.073058689088342</v>
+        <v>0.4669546458164078</v>
       </c>
       <c r="N12">
-        <v>0.7250811293214952</v>
+        <v>1.040522977791539</v>
       </c>
       <c r="O12">
-        <v>1.386420092192452</v>
+        <v>1.767660889761402</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.901218812362742</v>
+        <v>0.9357502092170762</v>
       </c>
       <c r="C13">
-        <v>0.6824998810639897</v>
+        <v>0.215336296075634</v>
       </c>
       <c r="D13">
-        <v>0.3228395749765411</v>
+        <v>0.3668763693194563</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.760583540796361</v>
+        <v>0.94523741619318</v>
       </c>
       <c r="G13">
-        <v>0.4120312724208617</v>
+        <v>0.3884951732683675</v>
       </c>
       <c r="H13">
-        <v>0.2654824458064837</v>
+        <v>0.5237352338306493</v>
       </c>
       <c r="I13">
-        <v>0.1487349322160156</v>
+        <v>0.3578198263474803</v>
       </c>
       <c r="J13">
-        <v>0.2036081915173824</v>
+        <v>0.2886624825340434</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.067304003228784</v>
+        <v>0.4653280049305835</v>
       </c>
       <c r="N13">
-        <v>0.7249265925683943</v>
+        <v>1.04061640479047</v>
       </c>
       <c r="O13">
-        <v>1.381210809216071</v>
+        <v>1.767253457011662</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.851149517201236</v>
+        <v>0.9202514234396517</v>
       </c>
       <c r="C14">
-        <v>0.6711905314823809</v>
+        <v>0.2117769313333326</v>
       </c>
       <c r="D14">
-        <v>0.318385332050795</v>
+        <v>0.3660024168641911</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7509899641099054</v>
+        <v>0.9441701327147882</v>
       </c>
       <c r="G14">
-        <v>0.4059423510167051</v>
+        <v>0.3876797180352298</v>
       </c>
       <c r="H14">
-        <v>0.2636093956079577</v>
+        <v>0.5239612338672259</v>
       </c>
       <c r="I14">
-        <v>0.1485015024438177</v>
+        <v>0.3584700893889341</v>
       </c>
       <c r="J14">
-        <v>0.201262658826451</v>
+        <v>0.2884772187517513</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.048549810612535</v>
+        <v>0.4600250108695292</v>
       </c>
       <c r="N14">
-        <v>0.7244507840388508</v>
+        <v>1.0409309268166</v>
       </c>
       <c r="O14">
-        <v>1.364319749388613</v>
+        <v>1.765954577920809</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.820489050109813</v>
+        <v>0.9107552075819285</v>
       </c>
       <c r="C15">
-        <v>0.6642646868683357</v>
+        <v>0.2095956073691525</v>
       </c>
       <c r="D15">
-        <v>0.3156638512869705</v>
+        <v>0.3654698162349774</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7451470379989473</v>
+        <v>0.9435273286294432</v>
       </c>
       <c r="G15">
-        <v>0.4022352137553042</v>
+        <v>0.387186134046047</v>
       </c>
       <c r="H15">
-        <v>0.2624747889244361</v>
+        <v>0.524104722064834</v>
       </c>
       <c r="I15">
-        <v>0.148372359134779</v>
+        <v>0.358873250760432</v>
       </c>
       <c r="J15">
-        <v>0.1998349916889737</v>
+        <v>0.2883668129060908</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.037072191271818</v>
+        <v>0.4567781921517806</v>
       </c>
       <c r="N15">
-        <v>0.7241808174288593</v>
+        <v>1.041131141700944</v>
       </c>
       <c r="O15">
-        <v>1.354047595168424</v>
+        <v>1.765181909700971</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.644902545050343</v>
+        <v>0.8562949565534836</v>
       </c>
       <c r="C16">
-        <v>0.6245948567224389</v>
+        <v>0.1970785351955442</v>
       </c>
       <c r="D16">
-        <v>0.3001703080274609</v>
+        <v>0.3624594788117292</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.712160422969049</v>
+        <v>0.9400113440285907</v>
       </c>
       <c r="G16">
-        <v>0.381324777911928</v>
+        <v>0.3844480540991668</v>
       </c>
       <c r="H16">
-        <v>0.2561622995132637</v>
+        <v>0.5250045185310057</v>
       </c>
       <c r="I16">
-        <v>0.1478389630358024</v>
+        <v>0.3612579874740405</v>
       </c>
       <c r="J16">
-        <v>0.1917880162684966</v>
+        <v>0.2877812271857181</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9714420076568473</v>
+        <v>0.438194051059277</v>
       </c>
       <c r="N16">
-        <v>0.722956230836715</v>
+        <v>1.042394494360707</v>
       </c>
       <c r="O16">
-        <v>1.29628352915401</v>
+        <v>1.761105442127388</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.537276044504438</v>
+        <v>0.822849674760505</v>
       </c>
       <c r="C17">
-        <v>0.6002728655602709</v>
+        <v>0.1893849896229369</v>
       </c>
       <c r="D17">
-        <v>0.2907533244166416</v>
+        <v>0.3606501077535427</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6923512212672733</v>
+        <v>0.9380040317156926</v>
       </c>
       <c r="G17">
-        <v>0.3687826995511045</v>
+        <v>0.3828489637696464</v>
       </c>
       <c r="H17">
-        <v>0.2524535265544046</v>
+        <v>0.5256257107903934</v>
       </c>
       <c r="I17">
-        <v>0.1476903663538351</v>
+        <v>0.3627872588082752</v>
       </c>
       <c r="J17">
-        <v>0.1869669941121685</v>
+        <v>0.2874640180985253</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9312997274575423</v>
+        <v>0.4268133254594986</v>
       </c>
       <c r="N17">
-        <v>0.7224855686116456</v>
+        <v>1.043273153481536</v>
       </c>
       <c r="O17">
-        <v>1.261793511813295</v>
+        <v>1.758918079725248</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.475400018794744</v>
+        <v>0.8036001767137009</v>
       </c>
       <c r="C18">
-        <v>0.5862875014514088</v>
+        <v>0.1849545532813295</v>
       </c>
       <c r="D18">
-        <v>0.2853678918560689</v>
+        <v>0.3596231760747912</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6811081035700255</v>
+        <v>0.9369044747984248</v>
       </c>
       <c r="G18">
-        <v>0.3616692335308187</v>
+        <v>0.3819588107651981</v>
       </c>
       <c r="H18">
-        <v>0.250378441679004</v>
+        <v>0.5260084416574955</v>
       </c>
       <c r="I18">
-        <v>0.1476682956935278</v>
+        <v>0.3636912011526121</v>
       </c>
       <c r="J18">
-        <v>0.1842348272012515</v>
+        <v>0.2872970114950135</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9082517555360567</v>
+        <v>0.4202749393891807</v>
       </c>
       <c r="N18">
-        <v>0.7223151878841492</v>
+        <v>1.043816668780465</v>
       </c>
       <c r="O18">
-        <v>1.242289413922009</v>
+        <v>1.757775096574875</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.454454167539382</v>
+        <v>0.7970804969662026</v>
       </c>
       <c r="C19">
-        <v>0.5815528741256628</v>
+        <v>0.1834535807198563</v>
       </c>
       <c r="D19">
-        <v>0.2835496751131501</v>
+        <v>0.3592778432022072</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6773266592343816</v>
+        <v>0.9365416300238962</v>
       </c>
       <c r="G19">
-        <v>0.3592775523912621</v>
+        <v>0.3816625013830759</v>
       </c>
       <c r="H19">
-        <v>0.2496856411595587</v>
+        <v>0.5261423974384343</v>
       </c>
       <c r="I19">
-        <v>0.1476715032286435</v>
+        <v>0.3640014396775832</v>
       </c>
       <c r="J19">
-        <v>0.1833166049207477</v>
+        <v>0.2872431182240902</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9004548221537974</v>
+        <v>0.4180624567506399</v>
       </c>
       <c r="N19">
-        <v>0.7222744739389242</v>
+        <v>1.044007247929244</v>
       </c>
       <c r="O19">
-        <v>1.235741655427773</v>
+        <v>1.757407870967199</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.548730067088059</v>
+        <v>0.8264113023017217</v>
       </c>
       <c r="C20">
-        <v>0.602861542332505</v>
+        <v>0.1902045327471455</v>
       </c>
       <c r="D20">
-        <v>0.2917525445797367</v>
+        <v>0.3608412939893526</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6944442168987592</v>
+        <v>0.9382120218180461</v>
       </c>
       <c r="G20">
-        <v>0.3701073311014227</v>
+        <v>0.3830161253255397</v>
       </c>
       <c r="H20">
-        <v>0.2528422724498967</v>
+        <v>0.5255569513093832</v>
       </c>
       <c r="I20">
-        <v>0.1476995734212068</v>
+        <v>0.3626219450162971</v>
       </c>
       <c r="J20">
-        <v>0.187475944193416</v>
+        <v>0.2874961871450239</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9355686479486209</v>
+        <v>0.4280240494243088</v>
       </c>
       <c r="N20">
-        <v>0.7225252257607053</v>
+        <v>1.04317567312286</v>
       </c>
       <c r="O20">
-        <v>1.265430188356135</v>
+        <v>1.75913901153578</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.865854296485111</v>
+        <v>0.9248043706584781</v>
       </c>
       <c r="C21">
-        <v>0.6745120503923658</v>
+        <v>0.2128226349746001</v>
       </c>
       <c r="D21">
-        <v>0.3196922114527041</v>
+        <v>0.366258551139822</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7538008288697284</v>
+        <v>0.9444813403467123</v>
       </c>
       <c r="G21">
-        <v>0.4077260979589568</v>
+        <v>0.3879180060534964</v>
       </c>
       <c r="H21">
-        <v>0.2641568989233178</v>
+        <v>0.5238937984223782</v>
       </c>
       <c r="I21">
-        <v>0.1485671691492172</v>
+        <v>0.3582780791533438</v>
       </c>
       <c r="J21">
-        <v>0.2019497047833241</v>
+        <v>0.2885309946768686</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.054056296751554</v>
+        <v>0.4615823339875078</v>
       </c>
       <c r="N21">
-        <v>0.7245860477966914</v>
+        <v>1.040836968620411</v>
       </c>
       <c r="O21">
-        <v>1.369265535696456</v>
+        <v>1.766331310761416</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.073475949411488</v>
+        <v>0.9889875332610245</v>
       </c>
       <c r="C22">
-        <v>0.7214017856342991</v>
+        <v>0.2275554468831729</v>
       </c>
       <c r="D22">
-        <v>0.3382564129284589</v>
+        <v>0.3699209013817466</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7940722364679971</v>
+        <v>0.9490682753827286</v>
       </c>
       <c r="G22">
-        <v>0.4333067103043646</v>
+        <v>0.3913859191241897</v>
       </c>
       <c r="H22">
-        <v>0.2721140248464877</v>
+        <v>0.5230331773675516</v>
       </c>
       <c r="I22">
-        <v>0.1497474841661521</v>
+        <v>0.3556564125847324</v>
       </c>
       <c r="J22">
-        <v>0.2118090841671005</v>
+        <v>0.289344862246331</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.13192766140866</v>
+        <v>0.4835784692308494</v>
       </c>
       <c r="N22">
-        <v>0.7268867224245525</v>
+        <v>1.039647036206205</v>
       </c>
       <c r="O22">
-        <v>1.44040627887901</v>
+        <v>1.772058173852372</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.962625391647293</v>
+        <v>0.954743439333015</v>
       </c>
       <c r="C23">
-        <v>0.6963688383974329</v>
+        <v>0.2196968928165859</v>
       </c>
       <c r="D23">
-        <v>0.3283191108164374</v>
+        <v>0.3679551231343225</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7724364490957072</v>
+        <v>0.9465753539149802</v>
       </c>
       <c r="G23">
-        <v>0.4195577992933863</v>
+        <v>0.3895108183741769</v>
       </c>
       <c r="H23">
-        <v>0.2678134388893625</v>
+        <v>0.5234718047620817</v>
       </c>
       <c r="I23">
-        <v>0.1490589655995329</v>
+        <v>0.3570357380434288</v>
       </c>
       <c r="J23">
-        <v>0.2065084908853549</v>
+        <v>0.2888978972223697</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.090323134396968</v>
+        <v>0.4718330196255991</v>
       </c>
       <c r="N23">
-        <v>0.7255685058528059</v>
+        <v>1.040251197680661</v>
       </c>
       <c r="O23">
-        <v>1.4021217030662</v>
+        <v>1.768907683826285</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.543551705074265</v>
+        <v>0.8248011569153277</v>
       </c>
       <c r="C24">
-        <v>0.6016912090963444</v>
+        <v>0.1898340400621805</v>
       </c>
       <c r="D24">
-        <v>0.2913007086269062</v>
+        <v>0.3607548172573161</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6934975219984807</v>
+        <v>0.9381178198100315</v>
       </c>
       <c r="G24">
-        <v>0.3695081636917763</v>
+        <v>0.3829404606836562</v>
       </c>
       <c r="H24">
-        <v>0.2526663429456164</v>
+        <v>0.5255879577289875</v>
       </c>
       <c r="I24">
-        <v>0.1476952140844432</v>
+        <v>0.3626966063118324</v>
       </c>
       <c r="J24">
-        <v>0.1872457252197108</v>
+        <v>0.2874815956714656</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9336385751817815</v>
+        <v>0.4274766669309074</v>
       </c>
       <c r="N24">
-        <v>0.7225069852896411</v>
+        <v>1.043219624484635</v>
       </c>
       <c r="O24">
-        <v>1.263785038940341</v>
+        <v>1.759038771427925</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.092521421788547</v>
+        <v>0.6841587423061242</v>
       </c>
       <c r="C25">
-        <v>0.4997059723957307</v>
+        <v>0.1574201601866321</v>
       </c>
       <c r="D25">
-        <v>0.2525397559275149</v>
+        <v>0.3535150173839838</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6140368733106811</v>
+        <v>0.9310976149251928</v>
       </c>
       <c r="G25">
-        <v>0.3193087520167808</v>
+        <v>0.3769845387514721</v>
       </c>
       <c r="H25">
-        <v>0.2385261518138293</v>
+        <v>0.5288431898323154</v>
       </c>
       <c r="I25">
-        <v>0.1486229081503119</v>
+        <v>0.3697332646806331</v>
       </c>
       <c r="J25">
-        <v>0.1680070571618373</v>
+        <v>0.2865442863320737</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.766153675324702</v>
+        <v>0.3799197262180769</v>
       </c>
       <c r="N25">
-        <v>0.7230094809491803</v>
+        <v>1.047880119658004</v>
       </c>
       <c r="O25">
-        <v>1.127165206508494</v>
+        <v>1.752794408939536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_187/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5802201919648269</v>
+        <v>1.760668517826929</v>
       </c>
       <c r="C2">
-        <v>0.1333860406410849</v>
+        <v>0.4245917959059966</v>
       </c>
       <c r="D2">
-        <v>0.3486400274081376</v>
+        <v>0.2248598724267197</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.927735168085718</v>
+        <v>0.559731263829697</v>
       </c>
       <c r="G2">
-        <v>0.3735667452777491</v>
+        <v>0.285100355192391</v>
       </c>
       <c r="H2">
-        <v>0.5320773829552436</v>
+        <v>0.2297812983160767</v>
       </c>
       <c r="I2">
-        <v>0.3757125146676756</v>
+        <v>0.1511273616592348</v>
       </c>
       <c r="J2">
-        <v>0.2863611567612168</v>
+        <v>0.1549802043709931</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3451593160192559</v>
+        <v>0.6437795200795762</v>
       </c>
       <c r="N2">
-        <v>1.052571756193949</v>
+        <v>0.7263526699631342</v>
       </c>
       <c r="O2">
-        <v>1.751971742156471</v>
+        <v>1.035869523634645</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5095561750466686</v>
+        <v>1.535636091413437</v>
       </c>
       <c r="C3">
-        <v>0.116996475682754</v>
+        <v>0.3736083635158707</v>
       </c>
       <c r="D3">
-        <v>0.345621833688341</v>
+        <v>0.2065700089601705</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9265826203569674</v>
+        <v>0.5252296639400029</v>
       </c>
       <c r="G3">
-        <v>0.3718514101684534</v>
+        <v>0.2634018730109347</v>
       </c>
       <c r="H3">
-        <v>0.5347920870870624</v>
+        <v>0.2247909847467895</v>
       </c>
       <c r="I3">
-        <v>0.3802615564006295</v>
+        <v>0.1538486403025772</v>
       </c>
       <c r="J3">
-        <v>0.2865529949736825</v>
+        <v>0.1467766207398782</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3217656451734001</v>
+        <v>0.5612678520070133</v>
       </c>
       <c r="N3">
-        <v>1.056540501829922</v>
+        <v>0.730335033481964</v>
       </c>
       <c r="O3">
-        <v>1.753764469106414</v>
+        <v>0.9790870967094492</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4660641078759511</v>
+        <v>1.397317136608677</v>
       </c>
       <c r="C4">
-        <v>0.1068845514444661</v>
+        <v>0.3422473870338365</v>
       </c>
       <c r="D4">
-        <v>0.3439100971284859</v>
+        <v>0.1955507602663289</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9264304020022536</v>
+        <v>0.5050825936461152</v>
       </c>
       <c r="G4">
-        <v>0.3710938275974272</v>
+        <v>0.2507395017610037</v>
       </c>
       <c r="H4">
-        <v>0.5367170328413877</v>
+        <v>0.2221567363190857</v>
       </c>
       <c r="I4">
-        <v>0.3832994015100493</v>
+        <v>0.1559896689200979</v>
       </c>
       <c r="J4">
-        <v>0.2868265586623693</v>
+        <v>0.1420214950496259</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3074844715521934</v>
+        <v>0.5107636681747181</v>
       </c>
       <c r="N4">
-        <v>1.059367729072591</v>
+        <v>0.733584399745645</v>
       </c>
       <c r="O4">
-        <v>1.756023224164437</v>
+        <v>0.9465136293726459</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4483158692900702</v>
+        <v>1.340903287638497</v>
       </c>
       <c r="C5">
-        <v>0.1027519054841548</v>
+        <v>0.3294508757633423</v>
       </c>
       <c r="D5">
-        <v>0.3432482294262087</v>
+        <v>0.1911105134693543</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9265080882385206</v>
+        <v>0.4971195073174144</v>
       </c>
       <c r="G5">
-        <v>0.3708593643635965</v>
+        <v>0.2457355086842909</v>
       </c>
       <c r="H5">
-        <v>0.5375664061375929</v>
+        <v>0.2211868497844094</v>
       </c>
       <c r="I5">
-        <v>0.384598828156836</v>
+        <v>0.156975408545156</v>
       </c>
       <c r="J5">
-        <v>0.2869772109626041</v>
+        <v>0.1401509496769009</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3016859582817446</v>
+        <v>0.4902159550789946</v>
       </c>
       <c r="N5">
-        <v>1.060618205570854</v>
+        <v>0.7351047680487213</v>
       </c>
       <c r="O5">
-        <v>1.757234776543157</v>
+        <v>0.933785016868498</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4453673241770844</v>
+        <v>1.331532633138181</v>
       </c>
       <c r="C6">
-        <v>0.1020649690534583</v>
+        <v>0.3273249534340721</v>
       </c>
       <c r="D6">
-        <v>0.3431404849755495</v>
+        <v>0.1903761649869011</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.926529427801654</v>
+        <v>0.4958117704865188</v>
       </c>
       <c r="G6">
-        <v>0.3708249144644782</v>
+        <v>0.2449137365151657</v>
       </c>
       <c r="H6">
-        <v>0.5377113674385896</v>
+        <v>0.2210319299187447</v>
       </c>
       <c r="I6">
-        <v>0.384818308578847</v>
+        <v>0.1571457885314569</v>
       </c>
       <c r="J6">
-        <v>0.2870045926748688</v>
+        <v>0.1398443016769235</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3007244106705684</v>
+        <v>0.4868058375491344</v>
       </c>
       <c r="N6">
-        <v>1.060831792471284</v>
+        <v>0.735368905933413</v>
       </c>
       <c r="O6">
-        <v>1.757453532147935</v>
+        <v>0.931703502714285</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4658248478868359</v>
+        <v>1.396556526448364</v>
       </c>
       <c r="C7">
-        <v>0.1068288651644309</v>
+        <v>0.3420748792334223</v>
       </c>
       <c r="D7">
-        <v>0.3439010263396227</v>
+        <v>0.1954906779765935</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9264308839416842</v>
+        <v>0.5049742183067067</v>
       </c>
       <c r="G7">
-        <v>0.3710903649883193</v>
+        <v>0.2506713974241137</v>
       </c>
       <c r="H7">
-        <v>0.5367282247859251</v>
+        <v>0.2221432424450498</v>
       </c>
       <c r="I7">
-        <v>0.383316677175344</v>
+        <v>0.1560025108131704</v>
       </c>
       <c r="J7">
-        <v>0.2868284317994139</v>
+        <v>0.1419960008465324</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3074061844810956</v>
+        <v>0.510486428838604</v>
       </c>
       <c r="N7">
-        <v>1.05938419493355</v>
+        <v>0.7336041171577108</v>
       </c>
       <c r="O7">
-        <v>1.756038385100567</v>
+        <v>0.9463397985099391</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5558775992833205</v>
+        <v>1.683101484367626</v>
       </c>
       <c r="C8">
-        <v>0.1277451836682246</v>
+        <v>0.4070230527531464</v>
       </c>
       <c r="D8">
-        <v>0.3475700618990345</v>
+        <v>0.2185080320299875</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9272225092255013</v>
+        <v>0.54761138852421</v>
       </c>
       <c r="G8">
-        <v>0.3729138859260601</v>
+        <v>0.277475402625754</v>
       </c>
       <c r="H8">
-        <v>0.5329598659901009</v>
+        <v>0.2279686611496103</v>
       </c>
       <c r="I8">
-        <v>0.3772302005196444</v>
+        <v>0.1519650244349435</v>
       </c>
       <c r="J8">
-        <v>0.2863949722218848</v>
+        <v>0.1520908292227716</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3370762608777298</v>
+        <v>0.6152924960217376</v>
       </c>
       <c r="N8">
-        <v>1.053859263064027</v>
+        <v>0.7275551834144025</v>
       </c>
       <c r="O8">
-        <v>1.752349463586157</v>
+        <v>1.015796440147554</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.731596043920149</v>
+        <v>2.244374921062786</v>
       </c>
       <c r="C9">
-        <v>0.1683653357121955</v>
+        <v>0.5340544153316671</v>
       </c>
       <c r="D9">
-        <v>0.3558831553151123</v>
+        <v>0.2654535558591107</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.933181658919672</v>
+        <v>0.640106432606423</v>
       </c>
       <c r="G9">
-        <v>0.3788401540185617</v>
+        <v>0.3357584832631773</v>
       </c>
       <c r="H9">
-        <v>0.5276166446873418</v>
+        <v>0.2430160383154316</v>
       </c>
       <c r="I9">
-        <v>0.3672388236215269</v>
+        <v>0.1480119218431426</v>
       </c>
       <c r="J9">
-        <v>0.2867812160231225</v>
+        <v>0.1742988970759001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3959002104096072</v>
+        <v>0.8224012138084689</v>
       </c>
       <c r="N9">
-        <v>1.046114872553346</v>
+        <v>0.7223591430960994</v>
       </c>
       <c r="O9">
-        <v>1.754310790238833</v>
+        <v>1.171642922163528</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8601095478591105</v>
+        <v>2.657187631326963</v>
       </c>
       <c r="C10">
-        <v>0.1979556951998802</v>
+        <v>0.6273707934375068</v>
       </c>
       <c r="D10">
-        <v>0.36266780400058</v>
+        <v>0.3012491407803424</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9402478439415489</v>
+        <v>0.7144416519761307</v>
       </c>
       <c r="G10">
-        <v>0.3846345347705835</v>
+        <v>0.3827698531739543</v>
       </c>
       <c r="H10">
-        <v>0.5249370824489574</v>
+        <v>0.2565935178273264</v>
       </c>
       <c r="I10">
-        <v>0.3610867876453057</v>
+        <v>0.1478646707410896</v>
       </c>
       <c r="J10">
-        <v>0.2878195157456958</v>
+        <v>0.192343773222369</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4394936779871088</v>
+        <v>0.9760282787733416</v>
       </c>
       <c r="N10">
-        <v>1.042299396933544</v>
+        <v>0.7230237314676344</v>
       </c>
       <c r="O10">
-        <v>1.761370639524841</v>
+        <v>1.300265304309647</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9184356192523069</v>
+        <v>2.845285808710912</v>
       </c>
       <c r="C11">
-        <v>0.2113598610868621</v>
+        <v>0.6698660139962271</v>
       </c>
       <c r="D11">
-        <v>0.3659004058900024</v>
+        <v>0.3178644967012474</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9440465601166608</v>
+        <v>0.7498706486293969</v>
       </c>
       <c r="G11">
-        <v>0.3875849794265775</v>
+        <v>0.4052321076141681</v>
       </c>
       <c r="H11">
-        <v>0.5239883732576374</v>
+        <v>0.2633916755782622</v>
       </c>
       <c r="I11">
-        <v>0.3585468981721149</v>
+        <v>0.1484759900088619</v>
       </c>
       <c r="J11">
-        <v>0.2884559234726538</v>
+        <v>0.2009891124931684</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4594040353567976</v>
+        <v>1.04635435990096</v>
       </c>
       <c r="N11">
-        <v>1.040968765463106</v>
+        <v>0.7243978897711827</v>
       </c>
       <c r="O11">
-        <v>1.765805459973564</v>
+        <v>1.362351032364586</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9405015509258305</v>
+        <v>2.916575246320917</v>
       </c>
       <c r="C12">
-        <v>0.2164272729033598</v>
+        <v>0.6859683231513714</v>
       </c>
       <c r="D12">
-        <v>0.3671454376103895</v>
+        <v>0.3242081703232742</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9455690460841453</v>
+        <v>0.763538742978696</v>
       </c>
       <c r="G12">
-        <v>0.388747576938357</v>
+        <v>0.4139074327435566</v>
       </c>
       <c r="H12">
-        <v>0.5236679521940317</v>
+        <v>0.2660619002311222</v>
       </c>
       <c r="I12">
-        <v>0.3576223721003302</v>
+        <v>0.1488120856636534</v>
       </c>
       <c r="J12">
-        <v>0.2887205172341609</v>
+        <v>0.2043310593600722</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4669546458164078</v>
+        <v>1.07305868908832</v>
       </c>
       <c r="N12">
-        <v>1.040522977791539</v>
+        <v>0.725081129321552</v>
       </c>
       <c r="O12">
-        <v>1.767660889761402</v>
+        <v>1.386420092192481</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9357502092170762</v>
+        <v>2.901218812362686</v>
       </c>
       <c r="C13">
-        <v>0.215336296075634</v>
+        <v>0.6824998810641318</v>
       </c>
       <c r="D13">
-        <v>0.3668763693194563</v>
+        <v>0.3228395749764132</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.94523741619318</v>
+        <v>0.760583540796361</v>
       </c>
       <c r="G13">
-        <v>0.3884951732683675</v>
+        <v>0.4120312724209043</v>
       </c>
       <c r="H13">
-        <v>0.5237352338306493</v>
+        <v>0.2654824458065974</v>
       </c>
       <c r="I13">
-        <v>0.3578198263474803</v>
+        <v>0.1487349322160121</v>
       </c>
       <c r="J13">
-        <v>0.2886624825340434</v>
+        <v>0.2036081915175032</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4653280049305835</v>
+        <v>1.067304003228777</v>
       </c>
       <c r="N13">
-        <v>1.04061640479047</v>
+        <v>0.7249265925684085</v>
       </c>
       <c r="O13">
-        <v>1.767253457011662</v>
+        <v>1.381210809216071</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9202514234396517</v>
+        <v>2.851149517201293</v>
       </c>
       <c r="C14">
-        <v>0.2117769313333326</v>
+        <v>0.6711905314822673</v>
       </c>
       <c r="D14">
-        <v>0.3660024168641911</v>
+        <v>0.3183853320509229</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9441701327147882</v>
+        <v>0.7509899641098912</v>
       </c>
       <c r="G14">
-        <v>0.3876797180352298</v>
+        <v>0.4059423510167051</v>
       </c>
       <c r="H14">
-        <v>0.5239612338672259</v>
+        <v>0.2636093956079577</v>
       </c>
       <c r="I14">
-        <v>0.3584700893889341</v>
+        <v>0.1485015024438177</v>
       </c>
       <c r="J14">
-        <v>0.2884772187517513</v>
+        <v>0.2012626588264652</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4600250108695292</v>
+        <v>1.048549810612521</v>
       </c>
       <c r="N14">
-        <v>1.0409309268166</v>
+        <v>0.7244507840388508</v>
       </c>
       <c r="O14">
-        <v>1.765954577920809</v>
+        <v>1.364319749388528</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9107552075819285</v>
+        <v>2.820489050109984</v>
       </c>
       <c r="C15">
-        <v>0.2095956073691525</v>
+        <v>0.6642646868683642</v>
       </c>
       <c r="D15">
-        <v>0.3654698162349774</v>
+        <v>0.3156638512868852</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9435273286294432</v>
+        <v>0.7451470379989473</v>
       </c>
       <c r="G15">
-        <v>0.387186134046047</v>
+        <v>0.40223521375529</v>
       </c>
       <c r="H15">
-        <v>0.524104722064834</v>
+        <v>0.2624747889244361</v>
       </c>
       <c r="I15">
-        <v>0.358873250760432</v>
+        <v>0.1483723591347612</v>
       </c>
       <c r="J15">
-        <v>0.2883668129060908</v>
+        <v>0.1998349916890731</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4567781921517806</v>
+        <v>1.037072191271797</v>
       </c>
       <c r="N15">
-        <v>1.041131141700944</v>
+        <v>0.7241808174288451</v>
       </c>
       <c r="O15">
-        <v>1.765181909700971</v>
+        <v>1.354047595168424</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8562949565534836</v>
+        <v>2.644902545050343</v>
       </c>
       <c r="C16">
-        <v>0.1970785351955442</v>
+        <v>0.6245948567224957</v>
       </c>
       <c r="D16">
-        <v>0.3624594788117292</v>
+        <v>0.3001703080277167</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9400113440285907</v>
+        <v>0.712160422969049</v>
       </c>
       <c r="G16">
-        <v>0.3844480540991668</v>
+        <v>0.3813247779119422</v>
       </c>
       <c r="H16">
-        <v>0.5250045185310057</v>
+        <v>0.2561622995131501</v>
       </c>
       <c r="I16">
-        <v>0.3612579874740405</v>
+        <v>0.1478389630358095</v>
       </c>
       <c r="J16">
-        <v>0.2877812271857181</v>
+        <v>0.1917880162684966</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.438194051059277</v>
+        <v>0.9714420076568402</v>
       </c>
       <c r="N16">
-        <v>1.042394494360707</v>
+        <v>0.722956230836715</v>
       </c>
       <c r="O16">
-        <v>1.761105442127388</v>
+        <v>1.296283529153982</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.822849674760505</v>
+        <v>2.537276044504438</v>
       </c>
       <c r="C17">
-        <v>0.1893849896229369</v>
+        <v>0.6002728655604983</v>
       </c>
       <c r="D17">
-        <v>0.3606501077535427</v>
+        <v>0.2907533244165847</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9380040317156926</v>
+        <v>0.6923512212673018</v>
       </c>
       <c r="G17">
-        <v>0.3828489637696464</v>
+        <v>0.3687826995509766</v>
       </c>
       <c r="H17">
-        <v>0.5256257107903934</v>
+        <v>0.2524535265542909</v>
       </c>
       <c r="I17">
-        <v>0.3627872588082752</v>
+        <v>0.1476903663538529</v>
       </c>
       <c r="J17">
-        <v>0.2874640180985253</v>
+        <v>0.1869669941121046</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4268133254594986</v>
+        <v>0.9312997274575636</v>
       </c>
       <c r="N17">
-        <v>1.043273153481536</v>
+        <v>0.7224855686116314</v>
       </c>
       <c r="O17">
-        <v>1.758918079725248</v>
+        <v>1.261793511813238</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8036001767137009</v>
+        <v>2.47540001879463</v>
       </c>
       <c r="C18">
-        <v>0.1849545532813295</v>
+        <v>0.5862875014514088</v>
       </c>
       <c r="D18">
-        <v>0.3596231760747912</v>
+        <v>0.2853678918561968</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9369044747984248</v>
+        <v>0.6811081035700113</v>
       </c>
       <c r="G18">
-        <v>0.3819588107651981</v>
+        <v>0.3616692335308755</v>
       </c>
       <c r="H18">
-        <v>0.5260084416574955</v>
+        <v>0.2503784416790182</v>
       </c>
       <c r="I18">
-        <v>0.3636912011526121</v>
+        <v>0.1476682956935242</v>
       </c>
       <c r="J18">
-        <v>0.2872970114950135</v>
+        <v>0.1842348272011947</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4202749393891807</v>
+        <v>0.9082517555360639</v>
       </c>
       <c r="N18">
-        <v>1.043816668780465</v>
+        <v>0.722315187884135</v>
       </c>
       <c r="O18">
-        <v>1.757775096574875</v>
+        <v>1.242289413922009</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7970804969662026</v>
+        <v>2.454454167539097</v>
       </c>
       <c r="C19">
-        <v>0.1834535807198563</v>
+        <v>0.5815528741253786</v>
       </c>
       <c r="D19">
-        <v>0.3592778432022072</v>
+        <v>0.2835496751131075</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9365416300238962</v>
+        <v>0.6773266592343816</v>
       </c>
       <c r="G19">
-        <v>0.3816625013830759</v>
+        <v>0.3592775523911911</v>
       </c>
       <c r="H19">
-        <v>0.5261423974384343</v>
+        <v>0.249685641159445</v>
       </c>
       <c r="I19">
-        <v>0.3640014396775832</v>
+        <v>0.14767150322864</v>
       </c>
       <c r="J19">
-        <v>0.2872431182240902</v>
+        <v>0.1833166049207122</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4180624567506399</v>
+        <v>0.9004548221537974</v>
       </c>
       <c r="N19">
-        <v>1.044007247929244</v>
+        <v>0.72227447393891</v>
       </c>
       <c r="O19">
-        <v>1.757407870967199</v>
+        <v>1.235741655427773</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8264113023017217</v>
+        <v>2.548730067088115</v>
       </c>
       <c r="C20">
-        <v>0.1902045327471455</v>
+        <v>0.6028615423322492</v>
       </c>
       <c r="D20">
-        <v>0.3608412939893526</v>
+        <v>0.2917525445799072</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9382120218180461</v>
+        <v>0.6944442168987592</v>
       </c>
       <c r="G20">
-        <v>0.3830161253255397</v>
+        <v>0.3701073311014227</v>
       </c>
       <c r="H20">
-        <v>0.5255569513093832</v>
+        <v>0.2528422724500246</v>
       </c>
       <c r="I20">
-        <v>0.3626219450162971</v>
+        <v>0.1476995734212281</v>
       </c>
       <c r="J20">
-        <v>0.2874961871450239</v>
+        <v>0.1874759441933875</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4280240494243088</v>
+        <v>0.9355686479486209</v>
       </c>
       <c r="N20">
-        <v>1.04317567312286</v>
+        <v>0.7225252257607053</v>
       </c>
       <c r="O20">
-        <v>1.75913901153578</v>
+        <v>1.265430188356191</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9248043706584781</v>
+        <v>2.865854296485168</v>
       </c>
       <c r="C21">
-        <v>0.2128226349746001</v>
+        <v>0.67451205039211</v>
       </c>
       <c r="D21">
-        <v>0.366258551139822</v>
+        <v>0.3196922114525904</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9444813403467123</v>
+        <v>0.7538008288697284</v>
       </c>
       <c r="G21">
-        <v>0.3879180060534964</v>
+        <v>0.4077260979589568</v>
       </c>
       <c r="H21">
-        <v>0.5238937984223782</v>
+        <v>0.2641568989233178</v>
       </c>
       <c r="I21">
-        <v>0.3582780791533438</v>
+        <v>0.1485671691492136</v>
       </c>
       <c r="J21">
-        <v>0.2885309946768686</v>
+        <v>0.2019497047832743</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4615823339875078</v>
+        <v>1.054056296751561</v>
       </c>
       <c r="N21">
-        <v>1.040836968620411</v>
+        <v>0.7245860477966772</v>
       </c>
       <c r="O21">
-        <v>1.766331310761416</v>
+        <v>1.369265535696456</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9889875332610245</v>
+        <v>3.073475949411261</v>
       </c>
       <c r="C22">
-        <v>0.2275554468831729</v>
+        <v>0.721401785634157</v>
       </c>
       <c r="D22">
-        <v>0.3699209013817466</v>
+        <v>0.3382564129284589</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9490682753827286</v>
+        <v>0.7940722364679971</v>
       </c>
       <c r="G22">
-        <v>0.3913859191241897</v>
+        <v>0.4333067103044215</v>
       </c>
       <c r="H22">
-        <v>0.5230331773675516</v>
+        <v>0.2721140248466014</v>
       </c>
       <c r="I22">
-        <v>0.3556564125847324</v>
+        <v>0.1497474841661521</v>
       </c>
       <c r="J22">
-        <v>0.289344862246331</v>
+        <v>0.2118090841671716</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4835784692308494</v>
+        <v>1.131927661408653</v>
       </c>
       <c r="N22">
-        <v>1.039647036206205</v>
+        <v>0.7268867224245668</v>
       </c>
       <c r="O22">
-        <v>1.772058173852372</v>
+        <v>1.440406278879038</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.954743439333015</v>
+        <v>2.96262539164735</v>
       </c>
       <c r="C23">
-        <v>0.2196968928165859</v>
+        <v>0.6963688383979445</v>
       </c>
       <c r="D23">
-        <v>0.3679551231343225</v>
+        <v>0.3283191108164232</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9465753539149802</v>
+        <v>0.772436449095693</v>
       </c>
       <c r="G23">
-        <v>0.3895108183741769</v>
+        <v>0.4195577992933721</v>
       </c>
       <c r="H23">
-        <v>0.5234718047620817</v>
+        <v>0.2678134388893625</v>
       </c>
       <c r="I23">
-        <v>0.3570357380434288</v>
+        <v>0.1490589655995471</v>
       </c>
       <c r="J23">
-        <v>0.2888978972223697</v>
+        <v>0.2065084908853194</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4718330196255991</v>
+        <v>1.090323134396961</v>
       </c>
       <c r="N23">
-        <v>1.040251197680661</v>
+        <v>0.7255685058528059</v>
       </c>
       <c r="O23">
-        <v>1.768907683826285</v>
+        <v>1.402121703066342</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8248011569153277</v>
+        <v>2.543551705074321</v>
       </c>
       <c r="C24">
-        <v>0.1898340400621805</v>
+        <v>0.6016912090966855</v>
       </c>
       <c r="D24">
-        <v>0.3607548172573161</v>
+        <v>0.2913007086269062</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9381178198100315</v>
+        <v>0.6934975219984807</v>
       </c>
       <c r="G24">
-        <v>0.3829404606836562</v>
+        <v>0.3695081636916342</v>
       </c>
       <c r="H24">
-        <v>0.5255879577289875</v>
+        <v>0.2526663429456022</v>
       </c>
       <c r="I24">
-        <v>0.3626966063118324</v>
+        <v>0.1476952140844467</v>
       </c>
       <c r="J24">
-        <v>0.2874815956714656</v>
+        <v>0.1872457252198387</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4274766669309074</v>
+        <v>0.9336385751817673</v>
       </c>
       <c r="N24">
-        <v>1.043219624484635</v>
+        <v>0.7225069852896411</v>
       </c>
       <c r="O24">
-        <v>1.759038771427925</v>
+        <v>1.263785038940341</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6841587423061242</v>
+        <v>2.092521421788604</v>
       </c>
       <c r="C25">
-        <v>0.1574201601866321</v>
+        <v>0.4997059723956454</v>
       </c>
       <c r="D25">
-        <v>0.3535150173839838</v>
+        <v>0.2525397559275291</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9310976149251928</v>
+        <v>0.6140368733106811</v>
       </c>
       <c r="G25">
-        <v>0.3769845387514721</v>
+        <v>0.3193087520167666</v>
       </c>
       <c r="H25">
-        <v>0.5288431898323154</v>
+        <v>0.2385261518138293</v>
       </c>
       <c r="I25">
-        <v>0.3697332646806331</v>
+        <v>0.1486229081503225</v>
       </c>
       <c r="J25">
-        <v>0.2865442863320737</v>
+        <v>0.168007057161887</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3799197262180769</v>
+        <v>0.766153675324702</v>
       </c>
       <c r="N25">
-        <v>1.047880119658004</v>
+        <v>0.7230094809492229</v>
       </c>
       <c r="O25">
-        <v>1.752794408939536</v>
+        <v>1.12716520650855</v>
       </c>
     </row>
   </sheetData>
